--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N2">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O2">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P2">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q2">
-        <v>0.7349625329333332</v>
+        <v>0.0594381227</v>
       </c>
       <c r="R2">
-        <v>6.6146627964</v>
+        <v>0.5349431043</v>
       </c>
       <c r="S2">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="T2">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N3">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q3">
-        <v>4.874582077095112</v>
+        <v>6.12713278567511</v>
       </c>
       <c r="R3">
-        <v>43.871238693856</v>
+        <v>55.144195071076</v>
       </c>
       <c r="S3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="T3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N4">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O4">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P4">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q4">
-        <v>2.166638357462666</v>
+        <v>0.1339329911733333</v>
       </c>
       <c r="R4">
-        <v>19.499745217164</v>
+        <v>1.20539692056</v>
       </c>
       <c r="S4">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="T4">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
     </row>
   </sheetData>
